--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd14-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd14-Itga4.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4756863333333334</v>
+        <v>2.024133333333333</v>
       </c>
       <c r="H2">
-        <v>1.427059</v>
+        <v>6.0724</v>
       </c>
       <c r="I2">
-        <v>0.0009688106486373033</v>
+        <v>0.003186436857318456</v>
       </c>
       <c r="J2">
-        <v>0.0009688106486373032</v>
+        <v>0.003186436857318455</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N2">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q2">
-        <v>0.04604580281822222</v>
+        <v>2.236918325866667</v>
       </c>
       <c r="R2">
-        <v>0.414412225364</v>
+        <v>20.1322649328</v>
       </c>
       <c r="S2">
-        <v>4.501144561560119E-07</v>
+        <v>2.202095519809022E-05</v>
       </c>
       <c r="T2">
-        <v>4.501144561560118E-07</v>
+        <v>2.202095519809022E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4756863333333334</v>
+        <v>2.024133333333333</v>
       </c>
       <c r="H3">
-        <v>1.427059</v>
+        <v>6.0724</v>
       </c>
       <c r="I3">
-        <v>0.0009688106486373033</v>
+        <v>0.003186436857318456</v>
       </c>
       <c r="J3">
-        <v>0.0009688106486373032</v>
+        <v>0.003186436857318455</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.133268</v>
       </c>
       <c r="O3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q3">
-        <v>0.02113125542355556</v>
+        <v>0.08991740035555555</v>
       </c>
       <c r="R3">
-        <v>0.190181298812</v>
+        <v>0.8092566032</v>
       </c>
       <c r="S3">
-        <v>2.065657011219142E-07</v>
+        <v>8.85176281074669E-07</v>
       </c>
       <c r="T3">
-        <v>2.065657011219141E-07</v>
+        <v>8.851762810746689E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4756863333333334</v>
+        <v>2.024133333333333</v>
       </c>
       <c r="H4">
-        <v>1.427059</v>
+        <v>6.0724</v>
       </c>
       <c r="I4">
-        <v>0.0009688106486373033</v>
+        <v>0.003186436857318456</v>
       </c>
       <c r="J4">
-        <v>0.0009688106486373032</v>
+        <v>0.003186436857318455</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N4">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O4">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P4">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q4">
-        <v>28.99664871279401</v>
+        <v>114.4549708578222</v>
       </c>
       <c r="R4">
-        <v>260.9698384151461</v>
+        <v>1030.0947377204</v>
       </c>
       <c r="S4">
-        <v>0.0002834527789043361</v>
+        <v>0.00112673214587856</v>
       </c>
       <c r="T4">
-        <v>0.000283452778904336</v>
+        <v>0.00112673214587856</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4756863333333334</v>
+        <v>2.024133333333333</v>
       </c>
       <c r="H5">
-        <v>1.427059</v>
+        <v>6.0724</v>
       </c>
       <c r="I5">
-        <v>0.0009688106486373033</v>
+        <v>0.003186436857318456</v>
       </c>
       <c r="J5">
-        <v>0.0009688106486373032</v>
+        <v>0.003186436857318455</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N5">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q5">
-        <v>0.774416240731889</v>
+        <v>1.6282715532</v>
       </c>
       <c r="R5">
-        <v>6.969746166587001</v>
+        <v>14.6544439788</v>
       </c>
       <c r="S5">
-        <v>7.570200185487296E-06</v>
+        <v>1.60292374150272E-05</v>
       </c>
       <c r="T5">
-        <v>7.570200185487296E-06</v>
+        <v>1.602923741502719E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4756863333333334</v>
+        <v>2.024133333333333</v>
       </c>
       <c r="H6">
-        <v>1.427059</v>
+        <v>6.0724</v>
       </c>
       <c r="I6">
-        <v>0.0009688106486373033</v>
+        <v>0.003186436857318456</v>
       </c>
       <c r="J6">
-        <v>0.0009688106486373032</v>
+        <v>0.003186436857318455</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N6">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q6">
-        <v>30.15647157046644</v>
+        <v>158.0627367857778</v>
       </c>
       <c r="R6">
-        <v>271.408244134198</v>
+        <v>1422.564631072</v>
       </c>
       <c r="S6">
-        <v>0.0002947904688318954</v>
+        <v>0.001556021248070641</v>
       </c>
       <c r="T6">
-        <v>0.0002947904688318953</v>
+        <v>0.001556021248070641</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.4756863333333334</v>
+        <v>2.024133333333333</v>
       </c>
       <c r="H7">
-        <v>1.427059</v>
+        <v>6.0724</v>
       </c>
       <c r="I7">
-        <v>0.0009688106486373033</v>
+        <v>0.003186436857318456</v>
       </c>
       <c r="J7">
-        <v>0.0009688106486373032</v>
+        <v>0.003186436857318455</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N7">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O7">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P7">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q7">
-        <v>39.11266563041067</v>
+        <v>47.20973818306666</v>
       </c>
       <c r="R7">
-        <v>352.0139906736961</v>
+        <v>424.8876436476</v>
       </c>
       <c r="S7">
-        <v>0.0003823405205583069</v>
+        <v>0.0004647480944750626</v>
       </c>
       <c r="T7">
-        <v>0.0003823405205583067</v>
+        <v>0.0004647480944750624</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>2.046143</v>
       </c>
       <c r="I8">
-        <v>0.001389098227217429</v>
+        <v>0.001073694992184994</v>
       </c>
       <c r="J8">
-        <v>0.001389098227217429</v>
+        <v>0.001073694992184994</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N8">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O8">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P8">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q8">
-        <v>0.06602130473644444</v>
+        <v>0.7537472455773333</v>
       </c>
       <c r="R8">
-        <v>0.5941917426279999</v>
+        <v>6.783725210196</v>
       </c>
       <c r="S8">
-        <v>6.453822467483337E-07</v>
+        <v>7.420134268474724E-06</v>
       </c>
       <c r="T8">
-        <v>6.453822467483337E-07</v>
+        <v>7.420134268474724E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2.046143</v>
       </c>
       <c r="I9">
-        <v>0.001389098227217429</v>
+        <v>0.001073694992184994</v>
       </c>
       <c r="J9">
-        <v>0.001389098227217429</v>
+        <v>0.001073694992184994</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.133268</v>
       </c>
       <c r="O9">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P9">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q9">
         <v>0.03029837614711111</v>
@@ -1013,10 +1013,10 @@
         <v>0.272685385324</v>
       </c>
       <c r="S9">
-        <v>2.961776376384556E-07</v>
+        <v>2.982671186494575E-07</v>
       </c>
       <c r="T9">
-        <v>2.961776376384555E-07</v>
+        <v>2.982671186494575E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2.046143</v>
       </c>
       <c r="I10">
-        <v>0.001389098227217429</v>
+        <v>0.001073694992184994</v>
       </c>
       <c r="J10">
-        <v>0.001389098227217429</v>
+        <v>0.001073694992184994</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N10">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O10">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P10">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q10">
-        <v>41.575919276738</v>
+        <v>38.56650376061144</v>
       </c>
       <c r="R10">
-        <v>374.183273490642</v>
+        <v>347.0985338455029</v>
       </c>
       <c r="S10">
-        <v>0.0004064197201276574</v>
+        <v>0.000379661269541597</v>
       </c>
       <c r="T10">
-        <v>0.0004064197201276574</v>
+        <v>0.000379661269541597</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2.046143</v>
       </c>
       <c r="I11">
-        <v>0.001389098227217429</v>
+        <v>0.001073694992184994</v>
       </c>
       <c r="J11">
-        <v>0.001389098227217429</v>
+        <v>0.001073694992184994</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N11">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O11">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P11">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q11">
-        <v>1.110372009888778</v>
+        <v>0.5486589224489998</v>
       </c>
       <c r="R11">
-        <v>9.993348088998999</v>
+        <v>4.937930302040998</v>
       </c>
       <c r="S11">
-        <v>1.085428991943117E-05</v>
+        <v>5.401177776842103E-06</v>
       </c>
       <c r="T11">
-        <v>1.085428991943117E-05</v>
+        <v>5.401177776842103E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2.046143</v>
       </c>
       <c r="I12">
-        <v>0.001389098227217429</v>
+        <v>0.001073694992184994</v>
       </c>
       <c r="J12">
-        <v>0.001389098227217429</v>
+        <v>0.001073694992184994</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N12">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O12">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P12">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q12">
-        <v>43.23889426338288</v>
+        <v>53.26048390011555</v>
       </c>
       <c r="R12">
-        <v>389.1500483704459</v>
+        <v>479.34435510104</v>
       </c>
       <c r="S12">
-        <v>0.0004226759049675597</v>
+        <v>0.0005243136131662943</v>
       </c>
       <c r="T12">
-        <v>0.0004226759049675596</v>
+        <v>0.0005243136131662942</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2.046143</v>
       </c>
       <c r="I13">
-        <v>0.001389098227217429</v>
+        <v>0.001073694992184994</v>
       </c>
       <c r="J13">
-        <v>0.001389098227217429</v>
+        <v>0.001073694992184994</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N13">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O13">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P13">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q13">
-        <v>56.08044726322134</v>
+        <v>15.90769305630633</v>
       </c>
       <c r="R13">
-        <v>504.724025368992</v>
+        <v>143.169237506757</v>
       </c>
       <c r="S13">
-        <v>0.0005482067523183943</v>
+        <v>0.0001566005303131361</v>
       </c>
       <c r="T13">
-        <v>0.0005482067523183942</v>
+        <v>0.0001566005303131361</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>123.4113783333333</v>
+        <v>201.9440003333333</v>
       </c>
       <c r="H14">
-        <v>370.234135</v>
+        <v>605.832001</v>
       </c>
       <c r="I14">
-        <v>0.2513468416351538</v>
+        <v>0.3179048510192661</v>
       </c>
       <c r="J14">
-        <v>0.2513468416351538</v>
+        <v>0.3179048510192661</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N14">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O14">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P14">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q14">
-        <v>11.94605687416222</v>
+        <v>223.1731614243747</v>
       </c>
       <c r="R14">
-        <v>107.51451186746</v>
+        <v>2008.558452819372</v>
       </c>
       <c r="S14">
-        <v>0.0001167770472881055</v>
+        <v>0.00219698955134549</v>
       </c>
       <c r="T14">
-        <v>0.0001167770472881054</v>
+        <v>0.00219698955134549</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>123.4113783333333</v>
+        <v>201.9440003333333</v>
       </c>
       <c r="H15">
-        <v>370.234135</v>
+        <v>605.832001</v>
       </c>
       <c r="I15">
-        <v>0.2513468416351538</v>
+        <v>0.3179048510192661</v>
       </c>
       <c r="J15">
-        <v>0.2513468416351538</v>
+        <v>0.3179048510192661</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.133268</v>
       </c>
       <c r="O15">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P15">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q15">
-        <v>5.482262522575556</v>
+        <v>8.970891012140887</v>
       </c>
       <c r="R15">
-        <v>49.34036270318001</v>
+        <v>80.738019109268</v>
       </c>
       <c r="S15">
-        <v>5.359110847942548E-05</v>
+        <v>8.831238350589637E-05</v>
       </c>
       <c r="T15">
-        <v>5.359110847942546E-05</v>
+        <v>8.831238350589637E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>123.4113783333333</v>
+        <v>201.9440003333333</v>
       </c>
       <c r="H16">
-        <v>370.234135</v>
+        <v>605.832001</v>
       </c>
       <c r="I16">
-        <v>0.2513468416351538</v>
+        <v>0.3179048510192661</v>
       </c>
       <c r="J16">
-        <v>0.2513468416351538</v>
+        <v>0.3179048510192661</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N16">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O16">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P16">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q16">
-        <v>7522.848847931412</v>
+        <v>11418.95856978972</v>
       </c>
       <c r="R16">
-        <v>67705.6396313827</v>
+        <v>102770.6271281075</v>
       </c>
       <c r="S16">
-        <v>0.07353858138380621</v>
+        <v>0.1124119607615822</v>
       </c>
       <c r="T16">
-        <v>0.07353858138380617</v>
+        <v>0.1124119607615822</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>123.4113783333333</v>
+        <v>201.9440003333333</v>
       </c>
       <c r="H17">
-        <v>370.234135</v>
+        <v>605.832001</v>
       </c>
       <c r="I17">
-        <v>0.2513468416351538</v>
+        <v>0.3179048510192661</v>
       </c>
       <c r="J17">
-        <v>0.2513468416351538</v>
+        <v>0.3179048510192661</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N17">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O17">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P17">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q17">
-        <v>200.9134359667839</v>
+        <v>162.4496102441429</v>
       </c>
       <c r="R17">
-        <v>1808.220923701055</v>
+        <v>1462.046492197287</v>
       </c>
       <c r="S17">
-        <v>0.001964001850975138</v>
+        <v>0.001599207064364995</v>
       </c>
       <c r="T17">
-        <v>0.001964001850975137</v>
+        <v>0.001599207064364995</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>123.4113783333333</v>
+        <v>201.9440003333333</v>
       </c>
       <c r="H18">
-        <v>370.234135</v>
+        <v>605.832001</v>
       </c>
       <c r="I18">
-        <v>0.2513468416351538</v>
+        <v>0.3179048510192661</v>
       </c>
       <c r="J18">
-        <v>0.2513468416351538</v>
+        <v>0.3179048510192661</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N18">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O18">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P18">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q18">
-        <v>7823.751622423274</v>
+        <v>15769.62389013636</v>
       </c>
       <c r="R18">
-        <v>70413.76460180947</v>
+        <v>141926.6150112273</v>
       </c>
       <c r="S18">
-        <v>0.07648001535621249</v>
+        <v>0.1552413323096558</v>
       </c>
       <c r="T18">
-        <v>0.07648001535621246</v>
+        <v>0.1552413323096558</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>123.4113783333333</v>
+        <v>201.9440003333333</v>
       </c>
       <c r="H19">
-        <v>370.234135</v>
+        <v>605.832001</v>
       </c>
       <c r="I19">
-        <v>0.2513468416351538</v>
+        <v>0.3179048510192661</v>
       </c>
       <c r="J19">
-        <v>0.2513468416351538</v>
+        <v>0.3179048510192661</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N19">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O19">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P19">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q19">
-        <v>10147.33373127483</v>
+        <v>4710.027361526477</v>
       </c>
       <c r="R19">
-        <v>91326.00358147346</v>
+        <v>42390.2462537383</v>
       </c>
       <c r="S19">
-        <v>0.09919387488839247</v>
+        <v>0.0463670489488117</v>
       </c>
       <c r="T19">
-        <v>0.09919387488839243</v>
+        <v>0.0463670489488117</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.155771</v>
+        <v>0.191206</v>
       </c>
       <c r="H20">
-        <v>0.467313</v>
+        <v>0.573618</v>
       </c>
       <c r="I20">
-        <v>0.0003172523425076637</v>
+        <v>0.0003010008459952074</v>
       </c>
       <c r="J20">
-        <v>0.0003172523425076637</v>
+        <v>0.0003010008459952074</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N20">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O20">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P20">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q20">
-        <v>0.01507842510533333</v>
+        <v>0.211306339544</v>
       </c>
       <c r="R20">
-        <v>0.135705825948</v>
+        <v>1.901757055896</v>
       </c>
       <c r="S20">
-        <v>1.473970850887275E-07</v>
+        <v>2.080168677758072E-06</v>
       </c>
       <c r="T20">
-        <v>1.473970850887274E-07</v>
+        <v>2.080168677758072E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.155771</v>
+        <v>0.191206</v>
       </c>
       <c r="H21">
-        <v>0.467313</v>
+        <v>0.573618</v>
       </c>
       <c r="I21">
-        <v>0.0003172523425076637</v>
+        <v>0.0003010008459952074</v>
       </c>
       <c r="J21">
-        <v>0.0003172523425076637</v>
+        <v>0.0003010008459952074</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.133268</v>
       </c>
       <c r="O21">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P21">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q21">
-        <v>0.006919763209333333</v>
+        <v>0.008493880402666666</v>
       </c>
       <c r="R21">
-        <v>0.062277868884</v>
+        <v>0.07644492362399999</v>
       </c>
       <c r="S21">
-        <v>6.76432000978131E-08</v>
+        <v>8.361653514219903E-08</v>
       </c>
       <c r="T21">
-        <v>6.764320009781309E-08</v>
+        <v>8.361653514219903E-08</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.155771</v>
+        <v>0.191206</v>
       </c>
       <c r="H22">
-        <v>0.467313</v>
+        <v>0.573618</v>
       </c>
       <c r="I22">
-        <v>0.0003172523425076637</v>
+        <v>0.0003010008459952074</v>
       </c>
       <c r="J22">
-        <v>0.0003172523425076637</v>
+        <v>0.0003010008459952074</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N22">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O22">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P22">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q22">
-        <v>9.495410420958001</v>
+        <v>10.81177647610867</v>
       </c>
       <c r="R22">
-        <v>85.458693788622</v>
+        <v>97.30598828497799</v>
       </c>
       <c r="S22">
-        <v>9.28210876131414E-05</v>
+        <v>0.0001064346617572241</v>
       </c>
       <c r="T22">
-        <v>9.282108761314139E-05</v>
+        <v>0.0001064346617572241</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.155771</v>
+        <v>0.191206</v>
       </c>
       <c r="H23">
-        <v>0.467313</v>
+        <v>0.573618</v>
       </c>
       <c r="I23">
-        <v>0.0003172523425076637</v>
+        <v>0.0003010008459952074</v>
       </c>
       <c r="J23">
-        <v>0.0003172523425076637</v>
+        <v>0.0003010008459952074</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N23">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O23">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P23">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q23">
-        <v>0.2535948245343333</v>
+        <v>0.153811651374</v>
       </c>
       <c r="R23">
-        <v>2.282353420809</v>
+        <v>1.384304862366</v>
       </c>
       <c r="S23">
-        <v>2.478981569283838E-06</v>
+        <v>1.51417217369295E-06</v>
       </c>
       <c r="T23">
-        <v>2.478981569283838E-06</v>
+        <v>1.51417217369295E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.155771</v>
+        <v>0.191206</v>
       </c>
       <c r="H24">
-        <v>0.467313</v>
+        <v>0.573618</v>
       </c>
       <c r="I24">
-        <v>0.0003172523425076637</v>
+        <v>0.0003010008459952074</v>
       </c>
       <c r="J24">
-        <v>0.0003172523425076637</v>
+        <v>0.0003010008459952074</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N24">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O24">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P24">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q24">
-        <v>9.875212727020665</v>
+        <v>14.93110317989333</v>
       </c>
       <c r="R24">
-        <v>88.87691454318599</v>
+        <v>134.37992861904</v>
       </c>
       <c r="S24">
-        <v>9.653379317970699E-05</v>
+        <v>0.0001469866603444742</v>
       </c>
       <c r="T24">
-        <v>9.653379317970698E-05</v>
+        <v>0.0001469866603444741</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.155771</v>
+        <v>0.191206</v>
       </c>
       <c r="H25">
-        <v>0.467313</v>
+        <v>0.573618</v>
       </c>
       <c r="I25">
-        <v>0.0003172523425076637</v>
+        <v>0.0003010008459952074</v>
       </c>
       <c r="J25">
-        <v>0.0003172523425076637</v>
+        <v>0.0003010008459952074</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N25">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O25">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P25">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q25">
-        <v>12.808059872608</v>
+        <v>4.459580330197999</v>
       </c>
       <c r="R25">
-        <v>115.272538853472</v>
+        <v>40.136222971782</v>
       </c>
       <c r="S25">
-        <v>0.000125203439860345</v>
+        <v>4.390156650691594E-05</v>
       </c>
       <c r="T25">
-        <v>0.000125203439860345</v>
+        <v>4.390156650691594E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>210.0997873333333</v>
+        <v>309.161316</v>
       </c>
       <c r="H26">
-        <v>630.299362</v>
+        <v>927.4839480000001</v>
       </c>
       <c r="I26">
-        <v>0.4279015329673814</v>
+        <v>0.4866887946246021</v>
       </c>
       <c r="J26">
-        <v>0.4279015329673814</v>
+        <v>0.4866887946246021</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N26">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O26">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P26">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q26">
-        <v>20.33737928081689</v>
+        <v>341.661590183184</v>
       </c>
       <c r="R26">
-        <v>183.036413527352</v>
+        <v>3074.954311648656</v>
       </c>
       <c r="S26">
-        <v>0.0001988052733223442</v>
+        <v>0.003363428375247981</v>
       </c>
       <c r="T26">
-        <v>0.0001988052733223442</v>
+        <v>0.003363428375247981</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>210.0997873333333</v>
+        <v>309.161316</v>
       </c>
       <c r="H27">
-        <v>630.299362</v>
+        <v>927.4839480000001</v>
       </c>
       <c r="I27">
-        <v>0.4279015329673814</v>
+        <v>0.4866887946246021</v>
       </c>
       <c r="J27">
-        <v>0.4279015329673814</v>
+        <v>0.4866887946246021</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.133268</v>
       </c>
       <c r="O27">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P27">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q27">
-        <v>9.333192819446221</v>
+        <v>13.733770086896</v>
       </c>
       <c r="R27">
-        <v>83.998735375016</v>
+        <v>123.603930782064</v>
       </c>
       <c r="S27">
-        <v>9.123535160650344E-05</v>
+        <v>0.0001351997219957664</v>
       </c>
       <c r="T27">
-        <v>9.123535160650342E-05</v>
+        <v>0.0001351997219957664</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>210.0997873333333</v>
+        <v>309.161316</v>
       </c>
       <c r="H28">
-        <v>630.299362</v>
+        <v>927.4839480000001</v>
       </c>
       <c r="I28">
-        <v>0.4279015329673814</v>
+        <v>0.4866887946246021</v>
       </c>
       <c r="J28">
-        <v>0.4279015329673814</v>
+        <v>0.4866887946246021</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N28">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O28">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P28">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q28">
-        <v>12807.15736617209</v>
+        <v>17481.58030423521</v>
       </c>
       <c r="R28">
-        <v>115264.4162955488</v>
+        <v>157334.2227381169</v>
       </c>
       <c r="S28">
-        <v>0.1251946175319521</v>
+        <v>0.1720943908500689</v>
       </c>
       <c r="T28">
-        <v>0.1251946175319521</v>
+        <v>0.1720943908500689</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>210.0997873333333</v>
+        <v>309.161316</v>
       </c>
       <c r="H29">
-        <v>630.299362</v>
+        <v>927.4839480000001</v>
       </c>
       <c r="I29">
-        <v>0.4279015329673814</v>
+        <v>0.4866887946246021</v>
       </c>
       <c r="J29">
-        <v>0.4279015329673814</v>
+        <v>0.4866887946246021</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N29">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O29">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P29">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q29">
-        <v>342.0419635458296</v>
+        <v>248.698328268564</v>
       </c>
       <c r="R29">
-        <v>3078.377671912466</v>
+        <v>2238.284954417076</v>
       </c>
       <c r="S29">
-        <v>0.003343584495893249</v>
+        <v>0.002448267637362285</v>
       </c>
       <c r="T29">
-        <v>0.003343584495893249</v>
+        <v>0.002448267637362285</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>210.0997873333333</v>
+        <v>309.161316</v>
       </c>
       <c r="H30">
-        <v>630.299362</v>
+        <v>927.4839480000001</v>
       </c>
       <c r="I30">
-        <v>0.4279015329673814</v>
+        <v>0.4866887946246021</v>
       </c>
       <c r="J30">
-        <v>0.4279015329673814</v>
+        <v>0.4866887946246021</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N30">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O30">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P30">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q30">
-        <v>13319.42462857957</v>
+        <v>24142.12686018016</v>
       </c>
       <c r="R30">
-        <v>119874.8216572161</v>
+        <v>217279.1417416215</v>
       </c>
       <c r="S30">
-        <v>0.1302022161861734</v>
+        <v>0.2376629883295642</v>
       </c>
       <c r="T30">
-        <v>0.1302022161861734</v>
+        <v>0.2376629883295641</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>210.0997873333333</v>
+        <v>309.161316</v>
       </c>
       <c r="H31">
-        <v>630.299362</v>
+        <v>927.4839480000001</v>
       </c>
       <c r="I31">
-        <v>0.4279015329673814</v>
+        <v>0.4866887946246021</v>
       </c>
       <c r="J31">
-        <v>0.4279015329673814</v>
+        <v>0.4866887946246021</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N31">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O31">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P31">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q31">
-        <v>17275.17095857086</v>
+        <v>7210.703239917827</v>
       </c>
       <c r="R31">
-        <v>155476.5386271377</v>
+        <v>64896.32915926045</v>
       </c>
       <c r="S31">
-        <v>0.1688710741284338</v>
+        <v>0.07098451971036294</v>
       </c>
       <c r="T31">
-        <v>0.1688710741284338</v>
+        <v>0.07098451971036294</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>156.175644</v>
+        <v>121.2313916666667</v>
       </c>
       <c r="H32">
-        <v>468.526932</v>
+        <v>363.694175</v>
       </c>
       <c r="I32">
-        <v>0.3180764641791024</v>
+        <v>0.1908452216606331</v>
       </c>
       <c r="J32">
-        <v>0.3180764641791024</v>
+        <v>0.1908452216606331</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N32">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O32">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P32">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q32">
-        <v>15.117594105008</v>
+        <v>133.9757204842333</v>
       </c>
       <c r="R32">
-        <v>136.058346945072</v>
+        <v>1205.7814843581</v>
       </c>
       <c r="S32">
-        <v>0.0001477799762950409</v>
+        <v>0.001318900786094688</v>
       </c>
       <c r="T32">
-        <v>0.0001477799762950409</v>
+        <v>0.001318900786094688</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>156.175644</v>
+        <v>121.2313916666667</v>
       </c>
       <c r="H33">
-        <v>468.526932</v>
+        <v>363.694175</v>
       </c>
       <c r="I33">
-        <v>0.3180764641791024</v>
+        <v>0.1908452216606331</v>
       </c>
       <c r="J33">
-        <v>0.3180764641791024</v>
+        <v>0.1908452216606331</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.133268</v>
       </c>
       <c r="O33">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P33">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q33">
-        <v>6.937738574864</v>
+        <v>5.385421701544444</v>
       </c>
       <c r="R33">
-        <v>62.439647173776</v>
+        <v>48.4687953139</v>
       </c>
       <c r="S33">
-        <v>6.781891582834306E-05</v>
+        <v>5.301585160315852E-05</v>
       </c>
       <c r="T33">
-        <v>6.781891582834305E-05</v>
+        <v>5.301585160315852E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>156.175644</v>
+        <v>121.2313916666667</v>
       </c>
       <c r="H34">
-        <v>468.526932</v>
+        <v>363.694175</v>
       </c>
       <c r="I34">
-        <v>0.3180764641791024</v>
+        <v>0.1908452216606331</v>
       </c>
       <c r="J34">
-        <v>0.3180764641791024</v>
+        <v>0.1908452216606331</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N34">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O34">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P34">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q34">
-        <v>9520.076506778714</v>
+        <v>6855.050095643352</v>
       </c>
       <c r="R34">
-        <v>85680.68856100843</v>
+        <v>61695.45086079017</v>
       </c>
       <c r="S34">
-        <v>0.09306220756599613</v>
+        <v>0.06748335390311613</v>
       </c>
       <c r="T34">
-        <v>0.09306220756599612</v>
+        <v>0.06748335390311612</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>156.175644</v>
+        <v>121.2313916666667</v>
       </c>
       <c r="H35">
-        <v>468.526932</v>
+        <v>363.694175</v>
       </c>
       <c r="I35">
-        <v>0.3180764641791024</v>
+        <v>0.1908452216606331</v>
       </c>
       <c r="J35">
-        <v>0.3180764641791024</v>
+        <v>0.1908452216606331</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N35">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O35">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P35">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q35">
-        <v>254.253584022164</v>
+        <v>97.52204716702497</v>
       </c>
       <c r="R35">
-        <v>2288.282256199476</v>
+        <v>877.6984245032247</v>
       </c>
       <c r="S35">
-        <v>0.002485421182678638</v>
+        <v>0.0009600389100746737</v>
       </c>
       <c r="T35">
-        <v>0.002485421182678638</v>
+        <v>0.0009600389100746735</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>156.175644</v>
+        <v>121.2313916666667</v>
       </c>
       <c r="H36">
-        <v>468.526932</v>
+        <v>363.694175</v>
       </c>
       <c r="I36">
-        <v>0.3180764641791024</v>
+        <v>0.1908452216606331</v>
       </c>
       <c r="J36">
-        <v>0.3180764641791024</v>
+        <v>0.1908452216606331</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N36">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O36">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P36">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q36">
-        <v>9900.865419618855</v>
+        <v>9466.849458788221</v>
       </c>
       <c r="R36">
-        <v>89107.78877656971</v>
+        <v>85201.64512909399</v>
       </c>
       <c r="S36">
-        <v>0.09678455757235654</v>
+        <v>0.09319476057234737</v>
       </c>
       <c r="T36">
-        <v>0.09678455757235652</v>
+        <v>0.09319476057234734</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>156.175644</v>
+        <v>121.2313916666667</v>
       </c>
       <c r="H37">
-        <v>468.526932</v>
+        <v>363.694175</v>
       </c>
       <c r="I37">
-        <v>0.3180764641791024</v>
+        <v>0.1908452216606331</v>
       </c>
       <c r="J37">
-        <v>0.3180764641791024</v>
+        <v>0.1908452216606331</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N37">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O37">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P37">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q37">
-        <v>12841.33117842931</v>
+        <v>2827.532241034258</v>
       </c>
       <c r="R37">
-        <v>115571.9806058638</v>
+        <v>25447.79016930832</v>
       </c>
       <c r="S37">
-        <v>0.1255286789659477</v>
+        <v>0.02783515163739706</v>
       </c>
       <c r="T37">
-        <v>0.1255286789659477</v>
+        <v>0.02783515163739705</v>
       </c>
     </row>
   </sheetData>
